--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224012.714688133</v>
+        <v>1222125.133171731</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121.4980671308161</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>145.1326623374958</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>65.05884990877774</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>309.533973072974</v>
+        <v>97.64711324990996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.1057118188689</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>127.5668126389825</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.35146980185841</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9052243575422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>80.67622280824484</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.470475891303</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.3158222056511</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>143.315822205652</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404421</v>
       </c>
       <c r="W25" t="n">
-        <v>239.8776430621771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.35117756628003</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.129165153205</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>10.45074535273939</v>
+        <v>93.41221638965514</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>91.23070601801196</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>42.20569823125727</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523557</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,16 +3004,16 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235376</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1701.775251950352</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1332.81273500994</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1332.81273500994</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150.78176403888</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1150.78176403888</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.78176403888</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>764.9935114406358</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>354.0076066510282</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014692</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1150.78176403888</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>662.4129741975678</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>662.4129741975678</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4129741975678</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.109392681467</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>1675.109392681467</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.843694074716</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="E8" t="n">
-        <v>931.0554414764722</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="F8" t="n">
-        <v>520.0695366868647</v>
+        <v>306.0424055524566</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1675.109392681467</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>539.1333157025265</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>539.1333157025265</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>539.1333157025265</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V10" t="n">
-        <v>539.1333157025265</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300506</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>226.0724577622884</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273992</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,10 +5358,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>391.6040140015125</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079765</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M15" t="n">
         <v>1406.737288300438</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7209225925279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>239.5456009123487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273989</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904383</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.6108700904383</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822456</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.738453580939</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2520.760934363149</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1306.350032969985</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1017.221394183544</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>762.5369059776569</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="W19" t="n">
-        <v>473.1197359406963</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>245.1301850426789</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426789</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>735.0407559057238</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9805482336708</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765192</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706315</v>
+        <v>531.3977182706324</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336708</v>
+        <v>241.9805482336717</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336708</v>
+        <v>241.9805482336717</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336708</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6072,22 +6072,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1925.814757496976</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2446.115379232724</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473454</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267567</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>802.0111227098126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>802.0111227098126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851559</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515592</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.5451177528694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>345.5451177528694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>345.5451177528694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>755.1831334811264</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>755.1831334811264</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X28" t="n">
-        <v>527.1935825831091</v>
+        <v>303.4081673726141</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.1935825831091</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766205</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>667.0753537276701</v>
+        <v>439.5324299542202</v>
       </c>
       <c r="C31" t="n">
-        <v>553.900036081134</v>
+        <v>326.3571123076842</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440237</v>
+        <v>232.0013381767194</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>139.8491098756972</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962057</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386981</v>
+        <v>902.6804289818949</v>
       </c>
       <c r="X31" t="n">
-        <v>957.9946671386981</v>
+        <v>730.4517433652485</v>
       </c>
       <c r="Y31" t="n">
-        <v>792.9629532765389</v>
+        <v>565.4200295030889</v>
       </c>
     </row>
     <row r="32">
@@ -6698,40 +6698,40 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6780,25 +6780,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141295</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
         <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>2315.73845358094</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555207</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619849</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7260,16 +7260,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7342,40 +7342,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7491,25 +7491,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342607</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214222</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878255</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>549.5984374701561</v>
@@ -7740,13 +7740,13 @@
         <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.218333389736</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.7176547498459</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>104.874910276575</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.83804904622824</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>202.5230052237945</v>
+        <v>369.0893880493725</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,13 +9720,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>171.2966883299248</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>230.7151863772028</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.83804904622801</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503157</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88923345256728</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>94.13752431970607</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L42" t="n">
-        <v>9.900512684485363</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720735</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P45" t="n">
-        <v>43.6598726146251</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>38.92675582439504</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502364</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>8.00860400999394</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>140.8713382501444</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.052522445288</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.105225817280156</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644284</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="W25" t="n">
-        <v>46.64535527441387</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>67.08278508028914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888984</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>82.96147103691582</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311676</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897891</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571477</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>965150.1343228188</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>965150.1343228186</v>
+        <v>965150.1343228187</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
         <v>410580.5127245943</v>
@@ -26329,13 +26329,13 @@
         <v>410580.5127245942</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>427163.2442125333</v>
@@ -26344,13 +26344,13 @@
         <v>431046.9291787486</v>
       </c>
       <c r="M2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="N2" t="n">
         <v>431046.9291787486</v>
       </c>
-      <c r="N2" t="n">
-        <v>431046.9291787485</v>
-      </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787486</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284579</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007567</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007453</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020407</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26522,31 @@
         <v>-389697.0768151261</v>
       </c>
       <c r="C6" t="n">
-        <v>200270.8023994183</v>
+        <v>200270.8023994184</v>
       </c>
       <c r="D6" t="n">
-        <v>200270.8023994183</v>
+        <v>200270.8023994185</v>
       </c>
       <c r="E6" t="n">
-        <v>-214483.581357026</v>
+        <v>-214581.040482998</v>
       </c>
       <c r="F6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.995993898</v>
       </c>
       <c r="G6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.9959938977</v>
       </c>
       <c r="H6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.9959938977</v>
       </c>
       <c r="I6" t="n">
-        <v>310676.4551198702</v>
+        <v>310578.9959938984</v>
       </c>
       <c r="J6" t="n">
-        <v>134253.235927277</v>
+        <v>134155.776801305</v>
       </c>
       <c r="K6" t="n">
-        <v>260291.0762092608</v>
+        <v>260272.5824713263</v>
       </c>
       <c r="L6" t="n">
         <v>292653.3976605285</v>
@@ -26558,7 +26558,7 @@
         <v>302996.3044613953</v>
       </c>
       <c r="O6" t="n">
-        <v>302996.3044613954</v>
+        <v>302996.3044613953</v>
       </c>
       <c r="P6" t="n">
         <v>258833.6991585495</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,31 +26744,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855724</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855724</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>260.4323029414457</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>268.6515076832992</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>159.9762555493065</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>104.250196947821</v>
+        <v>316.137056770885</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172465</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>25.03982713115005</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29287,13 +29287,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.010626042477247e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377851</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>255.4503488645142</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>616.5391140644629</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35972,19 +35972,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.8510818313024</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>451.7807101798188</v>
+        <v>618.347093005397</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36455,10 +36455,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.2506324680955</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>453.6603905710331</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>563.9097597752159</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>222.9314639777528</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.987089538255</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>373.0838068505802</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37628,19 +37628,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>427.332097717719</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37859,28 +37859,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L42" t="n">
-        <v>259.1582176405097</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P45" t="n">
-        <v>250.7532875461497</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
